--- a/NURSERY/Result.xlsx
+++ b/NURSERY/Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="63">
   <si>
     <t>Student Name</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Total Marks</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
   <si>
     <t>Anshuman Boro</t>
@@ -554,13 +560,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK21"/>
+  <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,16 +678,22 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -759,42 +771,48 @@
         <v>58.4</v>
       </c>
       <c r="AC2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AG2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AH2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI2">
         <v>250.8</v>
       </c>
       <c r="AJ2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AK2">
         <v>600</v>
       </c>
+      <c r="AL2">
+        <v>41.80000000000001</v>
+      </c>
+      <c r="AM2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -872,42 +890,48 @@
         <v>53.60000000000001</v>
       </c>
       <c r="AC3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AH3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI3">
         <v>187.2</v>
       </c>
       <c r="AJ3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AK3">
         <v>600</v>
       </c>
+      <c r="AL3">
+        <v>31.2</v>
+      </c>
+      <c r="AM3">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -985,42 +1009,48 @@
         <v>56.8</v>
       </c>
       <c r="AC4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AG4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AH4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI4">
         <v>245.2</v>
       </c>
       <c r="AJ4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AK4">
         <v>600</v>
       </c>
+      <c r="AL4">
+        <v>40.86666666666666</v>
+      </c>
+      <c r="AM4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1098,42 +1128,48 @@
         <v>57.6</v>
       </c>
       <c r="AC5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AG5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AH5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI5">
         <v>274.4</v>
       </c>
       <c r="AJ5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AK5">
         <v>600</v>
       </c>
+      <c r="AL5">
+        <v>45.73333333333333</v>
+      </c>
+      <c r="AM5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1211,42 +1247,48 @@
         <v>60</v>
       </c>
       <c r="AC6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AF6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AG6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AH6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI6">
         <v>153.8</v>
       </c>
       <c r="AJ6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK6">
         <v>600</v>
       </c>
+      <c r="AL6">
+        <v>25.63333333333334</v>
+      </c>
+      <c r="AM6">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1324,42 +1366,48 @@
         <v>58.8</v>
       </c>
       <c r="AC7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AG7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AH7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI7">
         <v>247</v>
       </c>
       <c r="AJ7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AK7">
         <v>600</v>
       </c>
+      <c r="AL7">
+        <v>41.16666666666667</v>
+      </c>
+      <c r="AM7">
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1437,42 +1485,48 @@
         <v>58.40000000000001</v>
       </c>
       <c r="AC8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AG8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AH8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI8">
         <v>219.6</v>
       </c>
       <c r="AJ8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AK8">
         <v>600</v>
       </c>
+      <c r="AL8">
+        <v>36.6</v>
+      </c>
+      <c r="AM8">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1550,42 +1604,48 @@
         <v>57.60000000000001</v>
       </c>
       <c r="AC9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AG9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AH9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI9">
         <v>248</v>
       </c>
       <c r="AJ9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AK9">
         <v>600</v>
       </c>
+      <c r="AL9">
+        <v>41.33333333333334</v>
+      </c>
+      <c r="AM9">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1663,42 +1723,48 @@
         <v>40.8</v>
       </c>
       <c r="AC10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AG10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AH10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI10">
         <v>248.4</v>
       </c>
       <c r="AJ10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AK10">
         <v>600</v>
       </c>
+      <c r="AL10">
+        <v>41.40000000000001</v>
+      </c>
+      <c r="AM10">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1776,42 +1842,48 @@
         <v>42.40000000000001</v>
       </c>
       <c r="AC11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AG11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AH11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI11">
         <v>231.6</v>
       </c>
       <c r="AJ11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AK11">
         <v>600</v>
       </c>
+      <c r="AL11">
+        <v>38.60000000000001</v>
+      </c>
+      <c r="AM11">
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1889,42 +1961,48 @@
         <v>55.2</v>
       </c>
       <c r="AC12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AG12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AH12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI12">
         <v>253.4</v>
       </c>
       <c r="AJ12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AK12">
         <v>600</v>
       </c>
+      <c r="AL12">
+        <v>42.23333333333334</v>
+      </c>
+      <c r="AM12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -2002,42 +2080,48 @@
         <v>55.6</v>
       </c>
       <c r="AC13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AG13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AH13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI13">
         <v>255.2</v>
       </c>
       <c r="AJ13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AK13">
         <v>600</v>
       </c>
+      <c r="AL13">
+        <v>42.53333333333333</v>
+      </c>
+      <c r="AM13">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -2115,42 +2199,48 @@
         <v>46</v>
       </c>
       <c r="AC14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AG14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AH14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI14">
         <v>240.8</v>
       </c>
       <c r="AJ14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AK14">
         <v>600</v>
       </c>
+      <c r="AL14">
+        <v>40.13333333333334</v>
+      </c>
+      <c r="AM14">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -2228,42 +2318,48 @@
         <v>56.00000000000001</v>
       </c>
       <c r="AC15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AG15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AH15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI15">
         <v>246</v>
       </c>
       <c r="AJ15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AK15">
         <v>600</v>
       </c>
+      <c r="AL15">
+        <v>41</v>
+      </c>
+      <c r="AM15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -2341,42 +2437,48 @@
         <v>47.60000000000001</v>
       </c>
       <c r="AC16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AG16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AH16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI16">
         <v>240</v>
       </c>
       <c r="AJ16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AK16">
         <v>600</v>
       </c>
+      <c r="AL16">
+        <v>40</v>
+      </c>
+      <c r="AM16">
+        <v>13</v>
+      </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -2454,42 +2556,48 @@
         <v>52.40000000000001</v>
       </c>
       <c r="AC17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AG17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AH17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI17">
         <v>242.8</v>
       </c>
       <c r="AJ17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AK17">
         <v>600</v>
       </c>
+      <c r="AL17">
+        <v>40.46666666666667</v>
+      </c>
+      <c r="AM17">
+        <v>11</v>
+      </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -2567,42 +2675,48 @@
         <v>60</v>
       </c>
       <c r="AC18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AG18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AH18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI18">
         <v>278</v>
       </c>
       <c r="AJ18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AK18">
         <v>600</v>
       </c>
+      <c r="AL18">
+        <v>46.33333333333333</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -2680,42 +2794,48 @@
         <v>49.2</v>
       </c>
       <c r="AC19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AG19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AH19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI19">
         <v>239.6</v>
       </c>
       <c r="AJ19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AK19">
         <v>600</v>
       </c>
+      <c r="AL19">
+        <v>39.93333333333334</v>
+      </c>
+      <c r="AM19">
+        <v>14</v>
+      </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -2793,42 +2913,48 @@
         <v>0</v>
       </c>
       <c r="AC20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AE20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AF20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AG20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AH20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AI20">
         <v>44.40000000000001</v>
       </c>
       <c r="AJ20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK20">
         <v>600</v>
       </c>
+      <c r="AL20">
+        <v>7.400000000000001</v>
+      </c>
+      <c r="AM20">
+        <v>20</v>
+      </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -2906,31 +3032,37 @@
         <v>40</v>
       </c>
       <c r="AC21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AE21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AF21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AG21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AH21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI21">
         <v>157.6</v>
       </c>
       <c r="AJ21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK21">
         <v>600</v>
+      </c>
+      <c r="AL21">
+        <v>26.26666666666667</v>
+      </c>
+      <c r="AM21">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
